--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Day10_Assignment2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_10a\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADFB7DA-6A7C-4A5B-B45B-7BBF5035EC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EAFA5A-8EAB-4CB2-83E1-FEBD11CCA7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -298,7 +298,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEB2A4F-A08B-E130-E310-6E64FD296E5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -708,7 +708,14 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2875,8 +2882,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2935,12 +2942,6 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
@@ -3965,7 +3966,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_10a\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_10aa\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EAFA5A-8EAB-4CB2-83E1-FEBD11CCA7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897C7A60-D151-44B9-9FF0-08510B78B34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,36 @@
   </si>
   <si>
     <t xml:space="preserve">Mail Credentials </t>
+  </si>
+  <si>
+    <t>https://www.nseindia.com/get-quotes/equity</t>
+  </si>
+  <si>
+    <t>BrowserName</t>
+  </si>
+  <si>
+    <t>OutputFile</t>
+  </si>
+  <si>
+    <t>Data\Output\Question2.xlsx</t>
+  </si>
+  <si>
+    <t>OutputSheet</t>
+  </si>
+  <si>
+    <t>https://www.nseindia.com/get-quotes/equity?symbol=</t>
+  </si>
+  <si>
+    <t>CompanyUrl</t>
+  </si>
+  <si>
+    <t>TimeOut</t>
+  </si>
+  <si>
+    <t>CC mail address</t>
+  </si>
+  <si>
+    <t>CC_mail_address</t>
   </si>
 </sst>
 </file>
@@ -249,9 +279,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,7 +316,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -627,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1718,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1900,11 +1928,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2880,10 +2943,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2942,13 +3005,17 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B4" s="6"/>
-    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3944,7 +4011,6 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3966,7 +4032,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_10aa\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897C7A60-D151-44B9-9FF0-08510B78B34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84C129-251C-4253-82C8-A2A0A064A792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1965,7 +1965,7 @@
         <v>57</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_10aa\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_10_Finall\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84C129-251C-4253-82C8-A2A0A064A792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF9680-04E6-465B-8D96-97EE923A6D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -95,116 +95,157 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+  </si>
+  <si>
+    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>NSE</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>NSE1</t>
+  </si>
+  <si>
+    <t>To mail address</t>
+  </si>
+  <si>
+    <t>To_mail_address</t>
+  </si>
+  <si>
+    <t>MailCredentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail Credentials </t>
+  </si>
+  <si>
+    <t>https://www.nseindia.com/get-quotes/equity</t>
+  </si>
+  <si>
+    <t>BrowserName</t>
+  </si>
+  <si>
+    <t>OutputFile</t>
+  </si>
+  <si>
+    <t>Data\Output\Question2.xlsx</t>
+  </si>
+  <si>
+    <t>OutputSheet</t>
+  </si>
+  <si>
+    <t>https://www.nseindia.com/get-quotes/equity?symbol=</t>
+  </si>
+  <si>
+    <t>CompanyUrl</t>
+  </si>
+  <si>
+    <t>TimeOut</t>
+  </si>
+  <si>
+    <t>CC mail address</t>
+  </si>
+  <si>
+    <t>CC_mail_address</t>
+  </si>
+  <si>
+    <t>Nse browser name</t>
+  </si>
+  <si>
+    <t>BusinessException</t>
+  </si>
+  <si>
+    <t>Company code unavailable</t>
+  </si>
+  <si>
+    <t>SystemException</t>
+  </si>
+  <si>
+    <t>Browser not loading</t>
+  </si>
+  <si>
+    <t>Display message when the system exception occurs</t>
+  </si>
+  <si>
+    <t>Display message when the business exception occurs</t>
+  </si>
+  <si>
+    <t>Delay time for check app state</t>
+  </si>
+  <si>
+    <t>Url for the Company name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name of the Output file </t>
+  </si>
+  <si>
+    <t>name of the Output sheet</t>
+  </si>
+  <si>
+    <t>CompressedFilePath</t>
+  </si>
+  <si>
+    <t>Data\Compressed_screenshots</t>
+  </si>
+  <si>
+    <t>ExceptionScreenshots</t>
+  </si>
+  <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-  </si>
-  <si>
-    <t>MaxConsecutiveSystemExceptions</t>
-  </si>
-  <si>
-    <t>ExceptionMessage_ConsecutiveErrors</t>
-  </si>
-  <si>
-    <t>RetryNumberGetTransactionItem</t>
-  </si>
-  <si>
-    <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
-    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
-  </si>
-  <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
-  </si>
-  <si>
-    <t>ShouldMarkJobAsFaulted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
-  </si>
-  <si>
-    <t>NSE</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>NSE1</t>
-  </si>
-  <si>
-    <t>To mail address</t>
-  </si>
-  <si>
-    <t>To_mail_address</t>
-  </si>
-  <si>
-    <t>MailCredentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mail Credentials </t>
-  </si>
-  <si>
-    <t>https://www.nseindia.com/get-quotes/equity</t>
-  </si>
-  <si>
-    <t>BrowserName</t>
-  </si>
-  <si>
-    <t>OutputFile</t>
-  </si>
-  <si>
-    <t>Data\Output\Question2.xlsx</t>
-  </si>
-  <si>
-    <t>OutputSheet</t>
-  </si>
-  <si>
-    <t>https://www.nseindia.com/get-quotes/equity?symbol=</t>
-  </si>
-  <si>
-    <t>CompanyUrl</t>
-  </si>
-  <si>
-    <t>TimeOut</t>
-  </si>
-  <si>
-    <t>CC mail address</t>
-  </si>
-  <si>
-    <t>CC_mail_address</t>
   </si>
 </sst>
 </file>
@@ -655,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -703,10 +744,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -714,13 +755,13 @@
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -729,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -738,10 +779,10 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1746,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1800,18 +1841,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1835,7 +1876,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1857,7 +1898,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1868,7 +1909,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1879,99 +1920,148 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
-        <v>53</v>
+      <c r="C19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2965,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2995,24 +3085,24 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_10_Finall\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_10a_F\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF9680-04E6-465B-8D96-97EE923A6D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B1F02-7073-431E-8E55-9451F21878A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -167,12 +167,6 @@
     <t>To_mail_address</t>
   </si>
   <si>
-    <t>MailCredentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mail Credentials </t>
-  </si>
-  <si>
     <t>https://www.nseindia.com/get-quotes/equity</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>NSE2</t>
+  </si>
+  <si>
+    <t>ShireenOutlook</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
@@ -779,10 +779,10 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1971,92 +1971,92 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
